--- a/testdata/absdata.xlsx
+++ b/testdata/absdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autoTest\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F094452-11E3-453F-AB27-FD28E6E0E4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D479BEC-4522-4D1D-8042-C4C659B52247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,22 @@
   </si>
   <si>
     <t>零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from S where sno = "2020001"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from S where sno = "2020002"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from S where sno = "2020003"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,15 +389,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,8 +410,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -402,8 +424,11 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -413,8 +438,11 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -423,6 +451,9 @@
       </c>
       <c r="C4">
         <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/absdata.xlsx
+++ b/testdata/absdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autoTest\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D479BEC-4522-4D1D-8042-C4C659B52247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D54063-5F14-4353-8954-333E60896D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,15 +55,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select * from S where sno = "2020001"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from S where sno = "2020002"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from S where sno = "2020003"</t>
+    <t>select * from S where sno = "202101"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from S where sno = "202102"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from S where sno = "202103"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +392,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
